--- a/biology/Zoologie/Escolier/Escolier.xlsx
+++ b/biology/Zoologie/Escolier/Escolier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,7 +518,9 @@
           <t>Poissons</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le nom Escolier peut désigner quelques espèces de grands poissons osseux marins d'eau profonde, de forme allongée et comportant souvent une première nageoire dorsale longue :
 Ruvettus pretiosus (Escolier ou rouvet),
@@ -539,7 +553,9 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Escoliers, groupe musical belge.</t>
         </is>
@@ -569,7 +585,9 @@
           <t>Patronyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Raymond Escholier, de son nom civil Raymond-Antoine-Marie-Emmanuel Escolier (1882-1971), journaliste, romancier et critique d'art français.
  Portail de l’ichtyologie                     </t>
